--- a/doc/HydroCarbon数据服务API2(更新中).xlsx
+++ b/doc/HydroCarbon数据服务API2(更新中).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,14 @@
     <sheet name="通用分页实体查询" sheetId="12" r:id="rId4"/>
     <sheet name="树形模板" sheetId="11" r:id="rId5"/>
     <sheet name="详情" sheetId="15" r:id="rId6"/>
-    <sheet name="实体操作" sheetId="13" r:id="rId7"/>
-    <sheet name="关系实体选择" sheetId="14" r:id="rId8"/>
-    <sheet name="枚举" sheetId="5" r:id="rId9"/>
-    <sheet name="数据导出" sheetId="7" r:id="rId10"/>
-    <sheet name="数据导入" sheetId="8" r:id="rId11"/>
-    <sheet name="Temp" sheetId="9" r:id="rId12"/>
+    <sheet name="关系操作" sheetId="16" r:id="rId7"/>
+    <sheet name="跳转操作" sheetId="17" r:id="rId8"/>
+    <sheet name="实体操作" sheetId="13" r:id="rId9"/>
+    <sheet name="关系实体选择" sheetId="14" r:id="rId10"/>
+    <sheet name="枚举" sheetId="5" r:id="rId11"/>
+    <sheet name="数据导出" sheetId="7" r:id="rId12"/>
+    <sheet name="数据导入" sheetId="8" r:id="rId13"/>
+    <sheet name="Temp" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="337">
   <si>
     <t>username</t>
   </si>
@@ -1094,10 +1096,6 @@
   </si>
   <si>
     <t>非必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当在统计时需要移除部分表头时传入，用逗号分隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1511,10 +1509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/api2/entity/curd/ask_for/{queryKey} -&gt; get /hydrocarbon/entity/entities/detail/{queryKey} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api2/entity/curd/tree/{menuId}-&gt; get /hydrocarbon/entity/tree/root/{menuId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1672,6 +1666,28 @@
     <t>/api2/entity/curd/select_config/{validateSign:user|\\d+}/{fieldGroupId}
 -&gt;
 get /hydrocarbon/tmpl/relation/{validateSign:user|\\d+}/{fieldGroupId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要执行操作的实体的code，多个用逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在统计时需要移除部分表头时传入，用逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/api2/entity/curd/ask_for/{queryKey} -&gt; get /hydrocarbon/entity/entities/content/{queryKey} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/do_jump/{menuId}/{actionId}
+-&gt;
+post /hydrocarbon/entity/jump/{menuId}/{actionId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2311,7 +2327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2688,16 +2704,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2709,24 +2728,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2799,27 +2827,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2827,21 +2867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2850,6 +2875,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2865,6 +2893,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2876,42 +2940,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3232,61 +3260,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="G3" s="142" t="s">
-        <v>299</v>
+      <c r="B3" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="G3" s="134" t="s">
+        <v>298</v>
       </c>
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="136" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="G4" s="143"/>
+      <c r="E4" s="140"/>
+      <c r="G4" s="135"/>
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="131"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="G5" s="143"/>
+      <c r="E5" s="140"/>
+      <c r="G5" s="135"/>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="139"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="G6" s="143"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3298,11 +3326,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="143"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="2:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="B8" s="131"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3312,11 +3340,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="143"/>
+      <c r="G8" s="135"/>
       <c r="H8" s="52"/>
     </row>
     <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="131"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3326,31 +3354,31 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="143"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="52"/>
     </row>
     <row r="10" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="137" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="142"/>
     </row>
     <row r="14" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="47" t="s">
@@ -3386,17 +3414,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3408,6 +3436,475 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="143" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+    </row>
+    <row r="3" spans="2:5" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="161" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="163"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="177"/>
+      <c r="C5" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="174"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="143" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+    </row>
+    <row r="11" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="161" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="163"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="177"/>
+      <c r="C13" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="174"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="190"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="191"/>
+    </row>
+    <row r="15" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+    </row>
+    <row r="21" spans="2:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="161" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="163"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="177"/>
+      <c r="C23" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="174"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="190"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="191"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="176"/>
+      <c r="C26" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="177"/>
+      <c r="C27" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="166"/>
+    </row>
+    <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" location="数据结构说明_选择模板配置数据"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+    </row>
+    <row r="3" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="161" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="171"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="172"/>
+    </row>
+    <row r="8" spans="2:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+    </row>
+    <row r="12" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="161" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="193"/>
+      <c r="E13" s="194"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="171"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="172"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B18" s="141"/>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F69"/>
   <sheetViews>
@@ -3425,20 +3922,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
@@ -3468,51 +3965,51 @@
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
     </row>
     <row r="9" spans="2:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="157" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
+      <c r="B9" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="175" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="192"/>
+      <c r="E10" s="208"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="193" t="s">
+      <c r="D11" s="209" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="194"/>
+      <c r="E11" s="210"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="160"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="141" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3526,7 +4023,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3538,7 +4035,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3550,7 +4047,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -3562,7 +4059,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3574,7 +4071,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="130"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="44" t="s">
         <v>164</v>
       </c>
@@ -3607,23 +4104,23 @@
     </row>
     <row r="22" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
     </row>
     <row r="24" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="157" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
+      <c r="B24" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="141" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="46" t="s">
@@ -3637,7 +4134,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="130"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="100" t="s">
         <v>103</v>
       </c>
@@ -3655,7 +4152,7 @@
       <c r="E27" s="105"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="100" t="s">
@@ -3665,7 +4162,7 @@
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="130"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="100" t="s">
         <v>69</v>
       </c>
@@ -3677,7 +4174,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="130"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="100" t="s">
         <v>70</v>
       </c>
@@ -3689,7 +4186,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="130"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="100" t="s">
         <v>71</v>
       </c>
@@ -3701,7 +4198,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="130"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="100" t="s">
         <v>72</v>
       </c>
@@ -3713,7 +4210,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="B33" s="130"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="100" t="s">
         <v>74</v>
       </c>
@@ -3725,7 +4222,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="145"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
@@ -3749,55 +4246,55 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="135"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
     </row>
     <row r="38" spans="2:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="157" t="s">
-        <v>319</v>
-      </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="138"/>
+      <c r="B38" s="161" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="139"/>
       <c r="F38" s="81"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="141" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="191" t="s">
+      <c r="D39" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="192"/>
+      <c r="E39" s="208"/>
       <c r="F39" s="81"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="130"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="158" t="s">
+      <c r="D40" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="159"/>
+      <c r="E40" s="163"/>
       <c r="F40" s="81"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="161"/>
-      <c r="E41" s="162"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="81"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="141" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="44" t="s">
@@ -3812,7 +4309,7 @@
       <c r="F42" s="81"/>
     </row>
     <row r="43" spans="2:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B43" s="130"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="44" t="s">
         <v>191</v>
       </c>
@@ -3825,7 +4322,7 @@
       <c r="F43" s="86"/>
     </row>
     <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="130"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="44" t="s">
         <v>220</v>
       </c>
@@ -3838,7 +4335,7 @@
       <c r="F44" s="86"/>
     </row>
     <row r="45" spans="2:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B45" s="130"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="44" t="s">
         <v>195</v>
       </c>
@@ -3851,13 +4348,13 @@
       <c r="F45" s="81"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="167"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="168"/>
+      <c r="B46" s="171"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="172"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="44" t="s">
@@ -3871,7 +4368,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="145"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
       </c>
@@ -3904,7 +4401,7 @@
     </row>
     <row r="52" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="198" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C52" s="199"/>
       <c r="D52" s="199"/>
@@ -3912,7 +4409,7 @@
     </row>
     <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C53" s="205"/>
       <c r="D53" s="205"/>
@@ -3965,7 +4462,7 @@
     </row>
     <row r="60" spans="2:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="198" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C60" s="199"/>
       <c r="D60" s="199"/>
@@ -3992,7 +4489,7 @@
       <c r="E62" s="27"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="130" t="s">
+      <c r="B63" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4006,7 +4503,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="130"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
@@ -4018,7 +4515,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="169"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="30" t="s">
         <v>67</v>
       </c>
@@ -4028,7 +4525,7 @@
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="169"/>
+      <c r="B66" s="175"/>
       <c r="C66" s="30" t="s">
         <v>58</v>
       </c>
@@ -4040,7 +4537,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="169"/>
+      <c r="B67" s="175"/>
       <c r="C67" s="30" t="s">
         <v>56</v>
       </c>
@@ -4052,7 +4549,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="169"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="30" t="s">
         <v>57</v>
       </c>
@@ -4064,7 +4561,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="145"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="15" t="s">
         <v>96</v>
       </c>
@@ -4077,15 +4574,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B51:E51"/>
@@ -4096,16 +4594,15 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B53:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4113,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E73"/>
   <sheetViews>
@@ -4131,20 +4628,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
     </row>
     <row r="4" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="157" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
+      <c r="B4" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="96" t="s">
@@ -4153,48 +4650,48 @@
       <c r="C5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="192"/>
+      <c r="E5" s="208"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="141" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="180" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="181"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="141"/>
+      <c r="C8" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D8" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="182"/>
-    </row>
-    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130"/>
-      <c r="C8" s="95" t="s">
+      <c r="E8" s="181"/>
+    </row>
+    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="141"/>
+      <c r="C9" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="181" t="s">
+      <c r="D9" s="180" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="182"/>
-    </row>
-    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="130"/>
-      <c r="C9" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="181" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="182"/>
+      <c r="E9" s="181"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="96"/>
@@ -4203,7 +4700,7 @@
       <c r="E10" s="97"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -4217,45 +4714,45 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="9" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="149"/>
+      <c r="C13" s="109" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="145"/>
-      <c r="C13" s="109" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="133" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
+      <c r="B16" s="143" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
     </row>
     <row r="17" spans="2:5" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="157" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138"/>
+      <c r="B17" s="161" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="139"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="99" t="s">
@@ -4264,44 +4761,44 @@
       <c r="C18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="207" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="208"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="141"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="142"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="192"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="100" t="s">
+      <c r="D20" s="180" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="181"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="141"/>
+      <c r="C21" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="181" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="182"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="130"/>
-      <c r="C21" s="100" t="s">
+      <c r="D21" s="180"/>
+      <c r="E21" s="181"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="141"/>
+      <c r="C22" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="182"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="130"/>
-      <c r="C22" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="182"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="181"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="99"/>
@@ -4310,7 +4807,7 @@
       <c r="E23" s="108"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="175" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="100" t="s">
@@ -4320,11 +4817,11 @@
         <v>5</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="170"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="100" t="s">
         <v>69</v>
       </c>
@@ -4336,7 +4833,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="170"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="100" t="s">
         <v>70</v>
       </c>
@@ -4348,7 +4845,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="170"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="100" t="s">
         <v>71</v>
       </c>
@@ -4360,7 +4857,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="170"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="100" t="s">
         <v>72</v>
       </c>
@@ -4372,7 +4869,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="91" x14ac:dyDescent="0.3">
-      <c r="B29" s="170"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="100" t="s">
         <v>74</v>
       </c>
@@ -4384,7 +4881,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="170"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="100" t="s">
         <v>73</v>
       </c>
@@ -4396,57 +4893,57 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="170"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D31" s="107" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="176"/>
+      <c r="C32" s="100" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="170"/>
-      <c r="C32" s="100" t="s">
-        <v>258</v>
       </c>
       <c r="D32" s="107" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="189"/>
+      <c r="C33" s="116" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="183"/>
-      <c r="C33" s="116" t="s">
+      <c r="D33" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="E33" s="117" t="s">
         <v>261</v>
-      </c>
-      <c r="E33" s="117" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="133" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="145"/>
     </row>
     <row r="37" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="157" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="161" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="99" t="s">
@@ -4455,47 +4952,47 @@
       <c r="C38" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="191" t="s">
+      <c r="D38" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="192"/>
+      <c r="E38" s="208"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="130"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="132"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="142"/>
     </row>
     <row r="40" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="133" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="143" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="145"/>
     </row>
     <row r="44" spans="2:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="157" t="s">
-        <v>328</v>
-      </c>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="138"/>
+      <c r="B44" s="161" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="139"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="99" t="s">
@@ -4504,106 +5001,106 @@
       <c r="C45" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="191" t="s">
+      <c r="D45" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="192"/>
+      <c r="E45" s="208"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="130"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="132"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="142"/>
     </row>
     <row r="47" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>169</v>
       </c>
       <c r="E47" s="118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="133" t="s">
-        <v>269</v>
-      </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="143" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="145"/>
     </row>
     <row r="51" spans="2:5" ht="47" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="157" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="161" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="139"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="169" t="s">
+      <c r="B52" s="175" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="191" t="s">
+      <c r="D52" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="192"/>
+      <c r="E52" s="208"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="171"/>
+      <c r="B53" s="177"/>
       <c r="C53" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="193" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="194"/>
+      <c r="E53" s="210"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="130"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="142"/>
     </row>
     <row r="55" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B58" s="133" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="135"/>
+      <c r="B58" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="145"/>
     </row>
     <row r="59" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="157" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="138"/>
+      <c r="B59" s="161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="139"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="99" t="s">
@@ -4612,53 +5109,53 @@
       <c r="C60" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="191" t="s">
+      <c r="D60" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="192"/>
+      <c r="E60" s="208"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="130"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="132"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="142"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="130" t="s">
-        <v>275</v>
+      <c r="B62" s="141" t="s">
+        <v>274</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E62" s="118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="130"/>
+      <c r="B63" s="141"/>
       <c r="C63" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="130"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="118" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -4672,81 +5169,81 @@
         <v>6</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B69" s="133" t="s">
-        <v>279</v>
-      </c>
-      <c r="C69" s="134"/>
-      <c r="D69" s="134"/>
-      <c r="E69" s="135"/>
+      <c r="B69" s="143" t="s">
+        <v>278</v>
+      </c>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="145"/>
     </row>
     <row r="70" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="157" t="s">
-        <v>325</v>
-      </c>
-      <c r="C70" s="137"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="138"/>
+      <c r="B70" s="161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" s="138"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="139"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="193" t="s">
-        <v>271</v>
-      </c>
-      <c r="E71" s="194"/>
+      <c r="E71" s="210"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="130"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="132"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="142"/>
     </row>
     <row r="73" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B36:E36"/>
@@ -4758,21 +5255,21 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,7 +5277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -4807,13 +5304,13 @@
       <c r="E3" s="197"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="214" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -4821,19 +5318,19 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="211"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -4841,7 +5338,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="171"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -4853,7 +5350,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="175" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -4861,7 +5358,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="183"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -4898,36 +5395,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="146" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="150" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="157"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="120" t="s">
@@ -4940,106 +5437,106 @@
         <v>15</v>
       </c>
       <c r="E6" s="123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
     </row>
     <row r="10" spans="2:5" ht="47" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="157" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
+      <c r="B10" s="161" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="141" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="141"/>
+      <c r="C12" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="124" t="s">
+      <c r="D12" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="124" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="125" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="124" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="141"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="142"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="111" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>288</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="141"/>
+      <c r="C15" s="126" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="126" t="s">
+      <c r="D15" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="141"/>
+      <c r="C16" s="126" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="149"/>
+      <c r="C17" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="E15" s="115" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="126" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="115" t="s">
+      <c r="D17" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="129" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="145"/>
-      <c r="C17" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="129" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +5565,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5082,20 +5579,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
@@ -5104,19 +5601,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="141" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5130,7 +5627,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B7" s="130"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="87" t="s">
         <v>224</v>
       </c>
@@ -5138,11 +5635,11 @@
         <v>225</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B8" s="130"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
@@ -5154,13 +5651,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="165"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="136" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -5174,7 +5671,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="131"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
@@ -5186,7 +5683,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="38" t="s">
         <v>110</v>
       </c>
@@ -5198,19 +5695,19 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="38" t="s">
         <v>111</v>
       </c>
@@ -5222,7 +5719,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="131"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="38" t="s">
         <v>112</v>
       </c>
@@ -5234,7 +5731,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B16" s="131"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="38" t="s">
         <v>113</v>
       </c>
@@ -5268,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5281,20 +5778,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="137" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
@@ -5303,19 +5800,19 @@
       <c r="C4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="166"/>
+      <c r="E4" s="170"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="141" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5329,7 +5826,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="130"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -5341,13 +5838,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="167"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="168"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="172"/>
     </row>
     <row r="9" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -5361,7 +5858,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="130"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="38" t="s">
         <v>132</v>
       </c>
@@ -5373,7 +5870,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="145"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="15" t="s">
         <v>133</v>
       </c>
@@ -5397,20 +5894,20 @@
       <c r="E13" s="63"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="136" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
+      <c r="B15" s="137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
@@ -5419,16 +5916,16 @@
       <c r="C16" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="166"/>
+      <c r="E16" s="170"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="167"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="168"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="172"/>
     </row>
     <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="40" t="s">
@@ -5485,20 +5982,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="137" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
@@ -5507,19 +6004,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="141" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5533,7 +6030,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B7" s="130"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -5545,13 +6042,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -5565,7 +6062,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="130"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -5577,7 +6074,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="130"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="38" t="s">
         <v>110</v>
       </c>
@@ -5589,7 +6086,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="38" t="s">
         <v>111</v>
       </c>
@@ -5601,7 +6098,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="38" t="s">
         <v>112</v>
       </c>
@@ -5613,7 +6110,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="38" t="s">
         <v>124</v>
       </c>
@@ -5625,7 +6122,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="38" t="s">
         <v>120</v>
       </c>
@@ -5637,7 +6134,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="145"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="15" t="s">
         <v>113</v>
       </c>
@@ -5650,54 +6147,54 @@
     </row>
     <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="157" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
+      <c r="B20" s="161" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="175" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="159"/>
+      <c r="E21" s="163"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="170"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="174"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="39" t="s">
@@ -5714,13 +6211,13 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -5734,7 +6231,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="145"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="15" t="s">
         <v>113</v>
       </c>
@@ -5747,22 +6244,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5793,68 +6290,68 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="161" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="130" t="s">
-        <v>301</v>
+      <c r="B4" s="141" t="s">
+        <v>300</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="182"/>
+      <c r="E4" s="181"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="130"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="182"/>
+      <c r="E5" s="181"/>
     </row>
     <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="130"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="182"/>
+      <c r="E6" s="181"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="130"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="182"/>
+      <c r="E7" s="181"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
     </row>
     <row r="9" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
@@ -5871,13 +6368,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="167"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="168"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="172"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -5891,7 +6388,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="145"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="15" t="s">
         <v>109</v>
       </c>
@@ -5903,107 +6400,107 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
     </row>
     <row r="16" spans="2:5" ht="58" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="180" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
+      <c r="B16" s="179" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="136" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="181"/>
+      <c r="E17" s="180"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="131"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="181"/>
+      <c r="E18" s="180"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="136" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>222</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="131"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="88" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21" s="91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="131"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="88" t="s">
         <v>145</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="91" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B23" s="131"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="88" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E23" s="91" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="88" t="s">
@@ -6017,19 +6514,19 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="131"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="89" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="131"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="88" t="s">
         <v>157</v>
       </c>
@@ -6047,107 +6544,107 @@
       <c r="E28" s="69"/>
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="179" t="s">
+      <c r="B30" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
     </row>
     <row r="31" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="180" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
+      <c r="B31" s="179" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
     </row>
     <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="136" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="181" t="s">
+      <c r="D32" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="181"/>
+      <c r="E32" s="180"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="131"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="175"/>
+      <c r="E33" s="182"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="131"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="175"/>
+      <c r="E34" s="182"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="184" t="s">
         <v>167</v>
       </c>
       <c r="C36" s="87" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="174" t="s">
-        <v>300</v>
+      <c r="G36" s="183" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="177"/>
+      <c r="B37" s="185"/>
       <c r="C37" s="87" t="s">
         <v>145</v>
       </c>
       <c r="D37" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="174"/>
+      <c r="G37" s="183"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="178"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="D38" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="174"/>
+      <c r="G38" s="183"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="87" t="s">
@@ -6165,6 +6662,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
@@ -6175,25 +6691,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6207,10 +6704,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E34"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6222,71 +6750,71 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="2:5" ht="111.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="161" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="175" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="182"/>
+      <c r="E4" s="181"/>
     </row>
     <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="170"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="182"/>
+      <c r="E5" s="181"/>
     </row>
     <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="170"/>
+      <c r="B6" s="176"/>
       <c r="C6" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="182"/>
+      <c r="E6" s="181"/>
     </row>
     <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="171"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="184" t="s">
+      <c r="D7" s="187" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="185"/>
+      <c r="E7" s="188"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -6300,7 +6828,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="170"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="75" t="s">
         <v>107</v>
       </c>
@@ -6312,7 +6840,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="170"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="75" t="s">
         <v>195</v>
       </c>
@@ -6324,7 +6852,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="170"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
@@ -6336,13 +6864,13 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="168"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="172"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="141" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -6356,7 +6884,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="145"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
@@ -6364,25 +6892,25 @@
         <v>5</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
     </row>
     <row r="19" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="157" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
+      <c r="B19" s="161" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="s">
@@ -6391,16 +6919,16 @@
       <c r="C20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="181" t="s">
+      <c r="D20" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="E20" s="182"/>
+      <c r="E20" s="181"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="160"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="s">
@@ -6417,10 +6945,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="167"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="168"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="172"/>
     </row>
     <row r="24" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="47" t="s">
@@ -6438,20 +6966,20 @@
     </row>
     <row r="26" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
     </row>
     <row r="28" spans="2:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="157" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
+      <c r="B28" s="161" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="45" t="s">
@@ -6460,16 +6988,16 @@
       <c r="C29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="182"/>
+      <c r="E29" s="181"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
@@ -6482,17 +7010,17 @@
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="167"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="168"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="172"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="175" t="s">
         <v>168</v>
       </c>
       <c r="C33" s="44" t="s">
@@ -6502,11 +7030,11 @@
         <v>5</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="183"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="15" t="s">
         <v>201</v>
       </c>
@@ -6517,20 +7045,95 @@
         <v>203</v>
       </c>
     </row>
+    <row r="36" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="143" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
+    </row>
+    <row r="38" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="161" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="139"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="180" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="181"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="133" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="171"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="172"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="189"/>
+      <c r="C44" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="28">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -6541,475 +7144,18 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B28:E28"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-    </row>
-    <row r="3" spans="2:5" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="159"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="171"/>
-      <c r="C5" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="172" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="173"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-    </row>
-    <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-    </row>
-    <row r="11" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="157" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="159"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
-      <c r="C13" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="172" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="173"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="186"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="187"/>
-    </row>
-    <row r="15" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135"/>
-    </row>
-    <row r="21" spans="2:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="157" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="159"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
-      <c r="C23" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="172" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="173"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="186"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="187"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="170"/>
-      <c r="C26" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="171"/>
-      <c r="C27" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="160"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
-    </row>
-    <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" location="数据结构说明_选择模板配置数据"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-    </row>
-    <row r="3" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="188" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="167"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="168"/>
-    </row>
-    <row r="8" spans="2:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
-    </row>
-    <row r="12" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="188" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="190"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="160"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="167"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="168"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B18" s="130"/>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
